--- a/workload/Synapse Service levels and workload visualizer.xlsx
+++ b/workload/Synapse Service levels and workload visualizer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eyus-my.sharepoint.com/personal/samal_anand_cheriyil_ey_com/Documents/Documents/00_Samal/10_Referances/03 Next gen Data/My documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{789CE218-E2A3-4430-9AE5-46BC8C52F6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1A58CF6-AC65-4651-9C4B-8A810DAD2B89}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{789CE218-E2A3-4430-9AE5-46BC8C52F6CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ADD8A11F-70DB-4D42-820B-89F07EDD13F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5416BE90-BD15-46D6-8411-1859C41972C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5416BE90-BD15-46D6-8411-1859C41972C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Workload visualizer" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="48">
   <si>
     <t>DW100c</t>
   </si>
@@ -196,6 +196,12 @@
   <si>
     <t>%Utilization</t>
   </si>
+  <si>
+    <t>Input --&gt;</t>
+  </si>
+  <si>
+    <t>Workload visualizer</t>
+  </si>
 </sst>
 </file>
 
@@ -203,9 +209,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +337,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,7 +627,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -637,15 +665,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -654,15 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -709,8 +719,25 @@
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -724,20 +751,29 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1622,8 +1658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2CF4C6-C09C-401C-8C03-A24861216271}">
   <dimension ref="B1:AE1208"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,20 +1672,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="T1" s="39" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="T1" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="39"/>
-      <c r="AB1" s="39"/>
-      <c r="AC1" s="39"/>
-      <c r="AD1" s="39"/>
-      <c r="AE1" s="39"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
     </row>
     <row r="2" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:31" x14ac:dyDescent="0.25">
@@ -1704,40 +1760,40 @@
       <c r="R3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="T3" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="U3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="V3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="37" t="s">
+      <c r="X3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="Y3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="Z3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AA3" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="38" t="s">
+      <c r="AB3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AC3" s="38" t="s">
+      <c r="AC3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AD3" s="38" t="s">
+      <c r="AD3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="AE3" s="38" t="s">
+      <c r="AE3" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1745,52 +1801,52 @@
       <c r="B4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="35">
         <v>4</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="35">
         <v>8</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="35">
         <v>12</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="35">
         <v>16</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="35">
         <v>20</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="35">
         <v>40</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="35">
         <v>60</v>
       </c>
-      <c r="J4" s="47">
+      <c r="J4" s="35">
         <v>80</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="35">
         <v>100</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="35">
         <v>120</v>
       </c>
-      <c r="M4" s="47">
+      <c r="M4" s="35">
         <v>200</v>
       </c>
-      <c r="N4" s="47">
+      <c r="N4" s="35">
         <v>240</v>
       </c>
-      <c r="O4" s="47">
+      <c r="O4" s="35">
         <v>300</v>
       </c>
-      <c r="P4" s="47">
+      <c r="P4" s="35">
         <v>400</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="35">
         <v>600</v>
       </c>
-      <c r="R4" s="47">
+      <c r="R4" s="35">
         <v>1200</v>
       </c>
       <c r="T4" s="2">
@@ -1834,7 +1890,7 @@
       <c r="B5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,C3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,C3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,C3)*$V$4
@@ -1849,7 +1905,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,C3)*$AE$4</f>
         <v>9</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,D3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,D3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,D3)*$V$4
@@ -1864,7 +1920,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,D3)*$AE$4</f>
         <v>9</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,E3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,E3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,E3)*$V$4
@@ -1879,7 +1935,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,E3)*$AE$4</f>
         <v>9</v>
       </c>
-      <c r="F5" s="48">
+      <c r="F5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,F3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,F3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,F3)*$V$4
@@ -1894,7 +1950,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,F3)*$AE$4</f>
         <v>9</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,G3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,G3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,G3)*$V$4
@@ -1909,7 +1965,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,G3)*$AE$4</f>
         <v>11</v>
       </c>
-      <c r="H5" s="48">
+      <c r="H5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,H3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,H3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,H3)*$V$4
@@ -1924,7 +1980,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,H3)*$AE$4</f>
         <v>15</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,I3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,I3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,I3)*$V$4
@@ -1939,7 +1995,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,I3)*$AE$4</f>
         <v>19</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,J3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,J3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,J3)*$V$4
@@ -1954,7 +2010,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,J3)*$AE$4</f>
         <v>24</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,K3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,K3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,K3)*$V$4
@@ -1969,7 +2025,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,K3)*$AE$4</f>
         <v>29</v>
       </c>
-      <c r="L5" s="48">
+      <c r="L5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,L3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,L3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,L3)*$V$4
@@ -1984,7 +2040,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,L3)*$AE$4</f>
         <v>33</v>
       </c>
-      <c r="M5" s="48">
+      <c r="M5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,M3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,M3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,M3)*$V$4
@@ -1999,7 +2055,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,M3)*$AE$4</f>
         <v>52</v>
       </c>
-      <c r="N5" s="48">
+      <c r="N5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,N3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,N3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,N3)*$V$4
@@ -2014,7 +2070,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,N3)*$AE$4</f>
         <v>61</v>
       </c>
-      <c r="O5" s="48">
+      <c r="O5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,O3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,O3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,O3)*$V$4
@@ -2029,7 +2085,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,O3)*$AE$4</f>
         <v>75</v>
       </c>
-      <c r="P5" s="48">
+      <c r="P5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,P3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,P3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,P3)*$V$4
@@ -2044,7 +2100,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,P3)*$AE$4</f>
         <v>98</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,Q3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,Q3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,Q3)*$V$4
@@ -2059,7 +2115,7 @@
 +SUMIFS('Service Level metrics'!$Z$4:$Z$19,'Service Level metrics'!$A4:$A19,Q3)*$AE$4</f>
         <v>144</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="36">
         <f>SUMIFS('Service Level metrics'!$J$4:$J$19,'Service Level metrics'!$A4:$A19,R3)*$T$4
 +SUMIFS('Service Level metrics'!$K$4:$K$19,'Service Level metrics'!$A4:$A19,R3)*$U$4
 +SUMIFS('Service Level metrics'!$L$4:$L$19,'Service Level metrics'!$A4:$A19,R3)*$V$4
@@ -2076,70 +2132,70 @@
       </c>
     </row>
     <row r="6" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="37">
         <f>C5/C4</f>
         <v>2.25</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="37">
         <f t="shared" ref="D6:R6" si="0">D5/D4</f>
         <v>1.125</v>
       </c>
-      <c r="E6" s="49">
+      <c r="E6" s="37">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="F6" s="49">
+      <c r="F6" s="37">
         <f t="shared" si="0"/>
         <v>0.5625</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="37">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="H6" s="49">
+      <c r="H6" s="37">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="I6" s="49">
+      <c r="I6" s="37">
         <f t="shared" si="0"/>
         <v>0.31666666666666665</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="37">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="K6" s="49">
+      <c r="K6" s="37">
         <f t="shared" si="0"/>
         <v>0.28999999999999998</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="37">
         <f t="shared" si="0"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="37">
         <f t="shared" si="0"/>
         <v>0.26</v>
       </c>
-      <c r="N6" s="49">
+      <c r="N6" s="37">
         <f t="shared" si="0"/>
         <v>0.25416666666666665</v>
       </c>
-      <c r="O6" s="49">
+      <c r="O6" s="37">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="P6" s="49">
+      <c r="P6" s="37">
         <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
-      <c r="Q6" s="49">
+      <c r="Q6" s="37">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
-      <c r="R6" s="49">
+      <c r="R6" s="37">
         <f t="shared" si="0"/>
         <v>0.23499999999999999</v>
       </c>
@@ -15325,8 +15381,10 @@
     </row>
     <row r="1208" spans="18:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <conditionalFormatting sqref="C8:R107 R108:R1207 C108:Q1002">
     <cfRule type="cellIs" priority="19" stopIfTrue="1" operator="lessThan">
@@ -15512,7 +15570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F5E0D01-F4E9-41FE-82D1-9F1B6B7D0AB8}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -15532,1470 +15590,1470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="15" t="s">
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="16" t="s">
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
       <c r="I2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="R2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17" t="s">
+      <c r="T2" s="49"/>
+      <c r="U2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17" t="s">
+      <c r="V2" s="49"/>
+      <c r="W2" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17" t="s">
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="Z2" s="17"/>
+      <c r="Z2" s="49"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="19" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="S3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="T3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="U3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="V3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="19" t="s">
+      <c r="W3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Y3" s="19" t="s">
+      <c r="Y3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="19" t="s">
+      <c r="Z3" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="20">
         <v>1</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="20">
         <v>60</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="20">
         <v>60</v>
       </c>
-      <c r="E4" s="45">
+      <c r="E4" s="33">
         <f>399</f>
         <v>399</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <v>0.25</v>
       </c>
-      <c r="G4" s="26">
+      <c r="G4" s="20">
         <v>4</v>
       </c>
-      <c r="H4" s="26">
+      <c r="H4" s="20">
         <v>4</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="20">
         <v>4</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="22">
         <v>1</v>
       </c>
-      <c r="K4" s="28">
+      <c r="K4" s="22">
         <v>2</v>
       </c>
-      <c r="L4" s="28">
+      <c r="L4" s="22">
         <v>4</v>
       </c>
-      <c r="M4" s="28">
+      <c r="M4" s="22">
         <v>4</v>
       </c>
-      <c r="N4" s="28">
+      <c r="N4" s="22">
         <v>4</v>
       </c>
-      <c r="O4" s="28">
+      <c r="O4" s="22">
         <v>4</v>
       </c>
-      <c r="P4" s="28">
+      <c r="P4" s="22">
         <v>4</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="22">
         <v>4</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="23">
         <v>4</v>
       </c>
-      <c r="S4" s="30">
+      <c r="S4" s="24">
         <v>0.25</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="20">
         <v>1</v>
       </c>
-      <c r="U4" s="30">
+      <c r="U4" s="24">
         <v>0.25</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="20">
         <v>1</v>
       </c>
-      <c r="W4" s="30">
+      <c r="W4" s="24">
         <v>0.25</v>
       </c>
-      <c r="X4" s="26">
+      <c r="X4" s="20">
         <v>1</v>
       </c>
-      <c r="Y4" s="30">
+      <c r="Y4" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z4" s="26">
+      <c r="Z4" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="20">
         <v>1</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="20">
         <v>60</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="20">
         <v>120</v>
       </c>
-      <c r="E5" s="45">
+      <c r="E5" s="33">
         <f>E4*2</f>
         <v>798</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="25">
         <v>0.125</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="20">
         <v>8</v>
       </c>
-      <c r="H5" s="26">
+      <c r="H5" s="20">
         <v>8</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="20">
         <v>8</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="22">
         <v>1</v>
       </c>
-      <c r="K5" s="28">
+      <c r="K5" s="22">
         <v>2</v>
       </c>
-      <c r="L5" s="28">
+      <c r="L5" s="22">
         <v>4</v>
       </c>
-      <c r="M5" s="28">
+      <c r="M5" s="22">
         <v>8</v>
       </c>
-      <c r="N5" s="28">
+      <c r="N5" s="22">
         <v>8</v>
       </c>
-      <c r="O5" s="28">
+      <c r="O5" s="22">
         <v>8</v>
       </c>
-      <c r="P5" s="28">
+      <c r="P5" s="22">
         <v>8</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="22">
         <v>8</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="23">
         <v>8</v>
       </c>
-      <c r="S5" s="32">
+      <c r="S5" s="26">
         <v>0.125</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="20">
         <v>1</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="26">
         <v>0.125</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="20">
         <v>1</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="24">
         <v>0.22</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5" s="20">
         <v>1</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z5" s="26">
+      <c r="Z5" s="20">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="20">
         <v>1</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="20">
         <v>60</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="20">
         <v>180</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="33">
         <f>E4*3</f>
         <v>1197</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="21">
         <v>0.08</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="20">
         <v>12</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="20">
         <v>12</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="20">
         <v>12</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="22">
         <v>1</v>
       </c>
-      <c r="K6" s="28">
+      <c r="K6" s="22">
         <v>2</v>
       </c>
-      <c r="L6" s="28">
+      <c r="L6" s="22">
         <v>4</v>
       </c>
-      <c r="M6" s="28">
+      <c r="M6" s="22">
         <v>8</v>
       </c>
-      <c r="N6" s="28">
+      <c r="N6" s="22">
         <v>8</v>
       </c>
-      <c r="O6" s="28">
+      <c r="O6" s="22">
         <v>8</v>
       </c>
-      <c r="P6" s="28">
+      <c r="P6" s="22">
         <v>8</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="22">
         <v>8</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="23">
         <v>12</v>
       </c>
-      <c r="S6" s="30">
+      <c r="S6" s="24">
         <v>0.08</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="20">
         <v>1</v>
       </c>
-      <c r="U6" s="30">
+      <c r="U6" s="24">
         <v>0.1</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V6" s="20">
         <v>1</v>
       </c>
-      <c r="W6" s="30">
+      <c r="W6" s="24">
         <v>0.22</v>
       </c>
-      <c r="X6" s="26">
+      <c r="X6" s="20">
         <v>2</v>
       </c>
-      <c r="Y6" s="30">
+      <c r="Y6" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z6" s="26">
+      <c r="Z6" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:26" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
+    <row r="7" spans="1:26" s="19" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="22">
         <v>1</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="22">
         <v>60</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="22">
         <v>240</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="33">
         <f>E4*4</f>
         <v>1596</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="27">
         <v>6.25E-2</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G7" s="22">
         <v>16</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="22">
         <v>16</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="22">
         <v>16</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="22">
         <v>1</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="22">
         <v>2</v>
       </c>
-      <c r="L7" s="28">
+      <c r="L7" s="22">
         <v>4</v>
       </c>
-      <c r="M7" s="28">
+      <c r="M7" s="22">
         <v>8</v>
       </c>
-      <c r="N7" s="28">
+      <c r="N7" s="22">
         <v>16</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="22">
         <v>16</v>
       </c>
-      <c r="P7" s="28">
+      <c r="P7" s="22">
         <v>16</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="22">
         <v>16</v>
       </c>
-      <c r="R7" s="34">
+      <c r="R7" s="28">
         <v>16</v>
       </c>
-      <c r="S7" s="35">
+      <c r="S7" s="29">
         <v>6.25E-2</v>
       </c>
-      <c r="T7" s="28">
+      <c r="T7" s="22">
         <v>1</v>
       </c>
-      <c r="U7" s="36">
+      <c r="U7" s="30">
         <v>0.1</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="22">
         <v>1</v>
       </c>
-      <c r="W7" s="36">
+      <c r="W7" s="30">
         <v>0.22</v>
       </c>
-      <c r="X7" s="28">
+      <c r="X7" s="22">
         <v>3</v>
       </c>
-      <c r="Y7" s="36">
+      <c r="Y7" s="30">
         <v>0.7</v>
       </c>
-      <c r="Z7" s="28">
+      <c r="Z7" s="22">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="20">
         <v>1</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C8" s="20">
         <v>60</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="20">
         <v>300</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="33">
         <f>E4*5</f>
         <v>1995</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="21">
         <v>0.05</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="20">
         <v>20</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="20">
         <v>20</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="20">
         <v>20</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="22">
         <v>1</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="22">
         <v>2</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="22">
         <v>4</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="22">
         <v>8</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="22">
         <v>16</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="22">
         <v>16</v>
       </c>
-      <c r="P8" s="28">
+      <c r="P8" s="22">
         <v>16</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="22">
         <v>16</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="23">
         <v>20</v>
       </c>
-      <c r="S8" s="30">
+      <c r="S8" s="24">
         <v>0.05</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="20">
         <v>1</v>
       </c>
-      <c r="U8" s="30">
+      <c r="U8" s="24">
         <v>0.1</v>
       </c>
-      <c r="V8" s="26">
+      <c r="V8" s="20">
         <v>2</v>
       </c>
-      <c r="W8" s="30">
+      <c r="W8" s="24">
         <v>0.22</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8" s="20">
         <v>4</v>
       </c>
-      <c r="Y8" s="30">
+      <c r="Y8" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z8" s="26">
+      <c r="Z8" s="20">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="20">
         <v>2</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C9" s="20">
         <v>30</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9" s="20">
         <v>600</v>
       </c>
-      <c r="E9" s="45">
+      <c r="E9" s="33">
         <f>E4*10</f>
         <v>3990</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="21">
         <v>0.03</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="20">
         <v>40</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="20">
         <v>32</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="20">
         <v>32</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="22">
         <v>1</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="22">
         <v>2</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="22">
         <v>4</v>
       </c>
-      <c r="M9" s="28">
+      <c r="M9" s="22">
         <v>8</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="22">
         <v>16</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="22">
         <v>32</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="22">
         <v>32</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="22">
         <v>32</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="23">
         <v>32</v>
       </c>
-      <c r="S9" s="30">
+      <c r="S9" s="24">
         <v>0.03</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="20">
         <v>1</v>
       </c>
-      <c r="U9" s="30">
+      <c r="U9" s="24">
         <v>0.1</v>
       </c>
-      <c r="V9" s="26">
+      <c r="V9" s="20">
         <v>4</v>
       </c>
-      <c r="W9" s="30">
+      <c r="W9" s="24">
         <v>0.22</v>
       </c>
-      <c r="X9" s="26">
+      <c r="X9" s="20">
         <v>8</v>
       </c>
-      <c r="Y9" s="30">
+      <c r="Y9" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z9" s="26">
+      <c r="Z9" s="20">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="20">
         <v>3</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="20">
         <v>20</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="20">
         <v>900</v>
       </c>
-      <c r="E10" s="45">
+      <c r="E10" s="33">
         <f>E4*15</f>
         <v>5985</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <v>0.03</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="20">
         <v>60</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="20">
         <v>32</v>
       </c>
-      <c r="I10" s="26">
+      <c r="I10" s="20">
         <v>32</v>
       </c>
-      <c r="J10" s="28">
+      <c r="J10" s="22">
         <v>1</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="22">
         <v>2</v>
       </c>
-      <c r="L10" s="28">
+      <c r="L10" s="22">
         <v>4</v>
       </c>
-      <c r="M10" s="28">
+      <c r="M10" s="22">
         <v>8</v>
       </c>
-      <c r="N10" s="28">
+      <c r="N10" s="22">
         <v>16</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="22">
         <v>32</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="22">
         <v>32</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="22">
         <v>32</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="23">
         <v>32</v>
       </c>
-      <c r="S10" s="30">
+      <c r="S10" s="24">
         <v>0.03</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="20">
         <v>1</v>
       </c>
-      <c r="U10" s="30">
+      <c r="U10" s="24">
         <v>0.1</v>
       </c>
-      <c r="V10" s="26">
+      <c r="V10" s="20">
         <v>6</v>
       </c>
-      <c r="W10" s="30">
+      <c r="W10" s="24">
         <v>0.22</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="20">
         <v>13</v>
       </c>
-      <c r="Y10" s="30">
+      <c r="Y10" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z10" s="26">
+      <c r="Z10" s="20">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="20">
         <v>4</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C11" s="20">
         <v>15</v>
       </c>
-      <c r="D11" s="26">
+      <c r="D11" s="20">
         <v>1200</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="33">
         <f>E4*20</f>
         <v>7980</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="21">
         <v>0.02</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="20">
         <v>80</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="20">
         <v>48</v>
       </c>
-      <c r="I11" s="26">
+      <c r="I11" s="20">
         <v>48</v>
       </c>
-      <c r="J11" s="28">
+      <c r="J11" s="22">
         <v>1</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="22">
         <v>2</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L11" s="22">
         <v>4</v>
       </c>
-      <c r="M11" s="28">
+      <c r="M11" s="22">
         <v>8</v>
       </c>
-      <c r="N11" s="28">
+      <c r="N11" s="22">
         <v>16</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="22">
         <v>32</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="22">
         <v>64</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="22">
         <v>64</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="23">
         <v>32</v>
       </c>
-      <c r="S11" s="30">
+      <c r="S11" s="24">
         <v>0.03</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="20">
         <v>2</v>
       </c>
-      <c r="U11" s="30">
+      <c r="U11" s="24">
         <v>0.1</v>
       </c>
-      <c r="V11" s="26">
+      <c r="V11" s="20">
         <v>8</v>
       </c>
-      <c r="W11" s="30">
+      <c r="W11" s="24">
         <v>0.22</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11" s="20">
         <v>17</v>
       </c>
-      <c r="Y11" s="30">
+      <c r="Y11" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z11" s="26">
+      <c r="Z11" s="20">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="20">
         <v>5</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="20">
         <v>12</v>
       </c>
-      <c r="D12" s="26">
+      <c r="D12" s="20">
         <v>1500</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="33">
         <f>E4*25</f>
         <v>9975</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="21">
         <v>0.02</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="20">
         <v>100</v>
       </c>
-      <c r="H12" s="26">
+      <c r="H12" s="20">
         <v>48</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="20">
         <v>48</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="22">
         <v>1</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="22">
         <v>2</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L12" s="22">
         <v>4</v>
       </c>
-      <c r="M12" s="28">
+      <c r="M12" s="22">
         <v>8</v>
       </c>
-      <c r="N12" s="28">
+      <c r="N12" s="22">
         <v>16</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="22">
         <v>32</v>
       </c>
-      <c r="P12" s="28">
+      <c r="P12" s="22">
         <v>64</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="22">
         <v>64</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="23">
         <v>32</v>
       </c>
-      <c r="S12" s="30">
+      <c r="S12" s="24">
         <v>0.03</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="20">
         <v>3</v>
       </c>
-      <c r="U12" s="30">
+      <c r="U12" s="24">
         <v>0.1</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="20">
         <v>10</v>
       </c>
-      <c r="W12" s="30">
+      <c r="W12" s="24">
         <v>0.22</v>
       </c>
-      <c r="X12" s="26">
+      <c r="X12" s="20">
         <v>22</v>
       </c>
-      <c r="Y12" s="30">
+      <c r="Y12" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z12" s="26">
+      <c r="Z12" s="20">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+    <row r="13" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="26">
+      <c r="B13" s="20">
         <v>6</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="20">
         <v>10</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="20">
         <v>1800</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="33">
         <f>E4*30</f>
         <v>11970</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="20">
         <v>120</v>
       </c>
-      <c r="H13" s="26">
+      <c r="H13" s="20">
         <v>64</v>
       </c>
-      <c r="I13" s="26">
+      <c r="I13" s="20">
         <v>64</v>
       </c>
-      <c r="J13" s="28">
+      <c r="J13" s="22">
         <v>1</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="22">
         <v>2</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L13" s="22">
         <v>4</v>
       </c>
-      <c r="M13" s="28">
+      <c r="M13" s="22">
         <v>8</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="22">
         <v>16</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="22">
         <v>32</v>
       </c>
-      <c r="P13" s="28">
+      <c r="P13" s="22">
         <v>64</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="22">
         <v>64</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="23">
         <v>32</v>
       </c>
-      <c r="S13" s="30">
+      <c r="S13" s="24">
         <v>0.03</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="20">
         <v>3</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="24">
         <v>0.1</v>
       </c>
-      <c r="V13" s="26">
+      <c r="V13" s="20">
         <v>12</v>
       </c>
-      <c r="W13" s="30">
+      <c r="W13" s="24">
         <v>0.22</v>
       </c>
-      <c r="X13" s="26">
+      <c r="X13" s="20">
         <v>26</v>
       </c>
-      <c r="Y13" s="30">
+      <c r="Y13" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z13" s="26">
+      <c r="Z13" s="20">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+    <row r="14" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="20">
         <v>10</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="20">
         <v>6</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D14" s="20">
         <v>3000</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="33">
         <f>E4*50</f>
         <v>19950</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="25">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="20">
         <v>200</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="20">
         <v>64</v>
       </c>
-      <c r="I14" s="26">
+      <c r="I14" s="20">
         <v>64</v>
       </c>
-      <c r="J14" s="28">
+      <c r="J14" s="22">
         <v>1</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="22">
         <v>2</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="22">
         <v>4</v>
       </c>
-      <c r="M14" s="28">
+      <c r="M14" s="22">
         <v>8</v>
       </c>
-      <c r="N14" s="28">
+      <c r="N14" s="22">
         <v>16</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="22">
         <v>32</v>
       </c>
-      <c r="P14" s="28">
+      <c r="P14" s="22">
         <v>64</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="22">
         <v>128</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="23">
         <v>32</v>
       </c>
-      <c r="S14" s="30">
+      <c r="S14" s="24">
         <v>0.03</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="20">
         <v>6</v>
       </c>
-      <c r="U14" s="30">
+      <c r="U14" s="24">
         <v>0.1</v>
       </c>
-      <c r="V14" s="26">
+      <c r="V14" s="20">
         <v>20</v>
       </c>
-      <c r="W14" s="30">
+      <c r="W14" s="24">
         <v>0.22</v>
       </c>
-      <c r="X14" s="26">
+      <c r="X14" s="20">
         <v>44</v>
       </c>
-      <c r="Y14" s="30">
+      <c r="Y14" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z14" s="26">
+      <c r="Z14" s="20">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="20">
         <v>12</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="20">
         <v>5</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="20">
         <v>3600</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="33">
         <f>E4*60</f>
         <v>23940</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="25">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="20">
         <v>240</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="20">
         <v>128</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="20">
         <v>128</v>
       </c>
-      <c r="J15" s="28">
+      <c r="J15" s="22">
         <v>1</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="22">
         <v>2</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="22">
         <v>4</v>
       </c>
-      <c r="M15" s="28">
+      <c r="M15" s="22">
         <v>8</v>
       </c>
-      <c r="N15" s="28">
+      <c r="N15" s="22">
         <v>16</v>
       </c>
-      <c r="O15" s="28">
+      <c r="O15" s="22">
         <v>32</v>
       </c>
-      <c r="P15" s="28">
+      <c r="P15" s="22">
         <v>64</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="22">
         <v>128</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="23">
         <v>32</v>
       </c>
-      <c r="S15" s="30">
+      <c r="S15" s="24">
         <v>0.03</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T15" s="20">
         <v>7</v>
       </c>
-      <c r="U15" s="30">
+      <c r="U15" s="24">
         <v>0.1</v>
       </c>
-      <c r="V15" s="26">
+      <c r="V15" s="20">
         <v>24</v>
       </c>
-      <c r="W15" s="30">
+      <c r="W15" s="24">
         <v>0.22</v>
       </c>
-      <c r="X15" s="26">
+      <c r="X15" s="20">
         <v>52</v>
       </c>
-      <c r="Y15" s="30">
+      <c r="Y15" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z15" s="26">
+      <c r="Z15" s="20">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="20">
         <v>15</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="20">
         <v>4</v>
       </c>
-      <c r="D16" s="26">
+      <c r="D16" s="20">
         <v>4500</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="33">
         <f>E4*75</f>
         <v>29925</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="25">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="20">
         <v>300</v>
       </c>
-      <c r="H16" s="26">
+      <c r="H16" s="20">
         <v>128</v>
       </c>
-      <c r="I16" s="26">
+      <c r="I16" s="20">
         <v>128</v>
       </c>
-      <c r="J16" s="28">
+      <c r="J16" s="22">
         <v>1</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="22">
         <v>2</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="22">
         <v>4</v>
       </c>
-      <c r="M16" s="28">
+      <c r="M16" s="22">
         <v>8</v>
       </c>
-      <c r="N16" s="28">
+      <c r="N16" s="22">
         <v>16</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="22">
         <v>32</v>
       </c>
-      <c r="P16" s="28">
+      <c r="P16" s="22">
         <v>64</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="22">
         <v>128</v>
       </c>
-      <c r="R16" s="29">
+      <c r="R16" s="23">
         <v>32</v>
       </c>
-      <c r="S16" s="30">
+      <c r="S16" s="24">
         <v>0.03</v>
       </c>
-      <c r="T16" s="26">
+      <c r="T16" s="20">
         <v>9</v>
       </c>
-      <c r="U16" s="30">
+      <c r="U16" s="24">
         <v>0.1</v>
       </c>
-      <c r="V16" s="26">
+      <c r="V16" s="20">
         <v>30</v>
       </c>
-      <c r="W16" s="30">
+      <c r="W16" s="24">
         <v>0.22</v>
       </c>
-      <c r="X16" s="26">
+      <c r="X16" s="20">
         <v>66</v>
       </c>
-      <c r="Y16" s="30">
+      <c r="Y16" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z16" s="26">
+      <c r="Z16" s="20">
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="20">
         <v>20</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="20">
         <v>3</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="20">
         <v>6000</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="33">
         <f>E4*100</f>
         <v>39900</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="25">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="20">
         <v>400</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="20">
         <v>128</v>
       </c>
-      <c r="I17" s="26">
+      <c r="I17" s="20">
         <v>128</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="22">
         <v>1</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="22">
         <v>2</v>
       </c>
-      <c r="L17" s="28">
+      <c r="L17" s="22">
         <v>4</v>
       </c>
-      <c r="M17" s="28">
+      <c r="M17" s="22">
         <v>8</v>
       </c>
-      <c r="N17" s="28">
+      <c r="N17" s="22">
         <v>16</v>
       </c>
-      <c r="O17" s="28">
+      <c r="O17" s="22">
         <v>32</v>
       </c>
-      <c r="P17" s="28">
+      <c r="P17" s="22">
         <v>64</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="22">
         <v>128</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="23">
         <v>32</v>
       </c>
-      <c r="S17" s="30">
+      <c r="S17" s="24">
         <v>0.03</v>
       </c>
-      <c r="T17" s="26">
+      <c r="T17" s="20">
         <v>12</v>
       </c>
-      <c r="U17" s="30">
+      <c r="U17" s="24">
         <v>0.1</v>
       </c>
-      <c r="V17" s="26">
+      <c r="V17" s="20">
         <v>40</v>
       </c>
-      <c r="W17" s="30">
+      <c r="W17" s="24">
         <v>0.22</v>
       </c>
-      <c r="X17" s="26">
+      <c r="X17" s="20">
         <v>88</v>
       </c>
-      <c r="Y17" s="30">
+      <c r="Y17" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z17" s="26">
+      <c r="Z17" s="20">
         <v>280</v>
       </c>
     </row>
-    <row r="18" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="20">
         <v>30</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="20">
         <v>2</v>
       </c>
-      <c r="D18" s="26">
+      <c r="D18" s="20">
         <v>9000</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="33">
         <f>E4*150</f>
         <v>59850</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="25">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="20">
         <v>600</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="20">
         <v>128</v>
       </c>
-      <c r="I18" s="26">
+      <c r="I18" s="20">
         <v>128</v>
       </c>
-      <c r="J18" s="28">
+      <c r="J18" s="22">
         <v>1</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="22">
         <v>2</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="22">
         <v>4</v>
       </c>
-      <c r="M18" s="28">
+      <c r="M18" s="22">
         <v>8</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="22">
         <v>16</v>
       </c>
-      <c r="O18" s="28">
+      <c r="O18" s="22">
         <v>32</v>
       </c>
-      <c r="P18" s="28">
+      <c r="P18" s="22">
         <v>64</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="22">
         <v>128</v>
       </c>
-      <c r="R18" s="29">
+      <c r="R18" s="23">
         <v>32</v>
       </c>
-      <c r="S18" s="30">
+      <c r="S18" s="24">
         <v>0.03</v>
       </c>
-      <c r="T18" s="26">
+      <c r="T18" s="20">
         <v>18</v>
       </c>
-      <c r="U18" s="30">
+      <c r="U18" s="24">
         <v>0.1</v>
       </c>
-      <c r="V18" s="26">
+      <c r="V18" s="20">
         <v>60</v>
       </c>
-      <c r="W18" s="30">
+      <c r="W18" s="24">
         <v>0.22</v>
       </c>
-      <c r="X18" s="26">
+      <c r="X18" s="20">
         <v>132</v>
       </c>
-      <c r="Y18" s="30">
+      <c r="Y18" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z18" s="26">
+      <c r="Z18" s="20">
         <v>420</v>
       </c>
     </row>
-    <row r="19" spans="1:26" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:26" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="20">
         <v>60</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="20">
         <v>1</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="20">
         <v>18000</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="33">
         <f>E4*300</f>
         <v>119700</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="25">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="20">
         <v>1200</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="20">
         <v>128</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="20">
         <v>128</v>
       </c>
-      <c r="J19" s="28">
+      <c r="J19" s="22">
         <v>1</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="22">
         <v>2</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="22">
         <v>4</v>
       </c>
-      <c r="M19" s="28">
+      <c r="M19" s="22">
         <v>8</v>
       </c>
-      <c r="N19" s="28">
+      <c r="N19" s="22">
         <v>16</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="22">
         <v>32</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="22">
         <v>64</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="22">
         <v>128</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="23">
         <v>32</v>
       </c>
-      <c r="S19" s="30">
+      <c r="S19" s="24">
         <v>0.03</v>
       </c>
-      <c r="T19" s="26">
+      <c r="T19" s="20">
         <v>36</v>
       </c>
-      <c r="U19" s="30">
+      <c r="U19" s="24">
         <v>0.1</v>
       </c>
-      <c r="V19" s="26">
+      <c r="V19" s="20">
         <v>120</v>
       </c>
-      <c r="W19" s="30">
+      <c r="W19" s="24">
         <v>0.22</v>
       </c>
-      <c r="X19" s="26">
+      <c r="X19" s="20">
         <v>264</v>
       </c>
-      <c r="Y19" s="30">
+      <c r="Y19" s="24">
         <v>0.7</v>
       </c>
-      <c r="Z19" s="26">
+      <c r="Z19" s="20">
         <v>840</v>
       </c>
     </row>
@@ -17023,6 +17081,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B7FBF0B9CEACA34A981A7F46EA19F3F9" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6aebb3870da410bb742d73a551018502">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac" xmlns:ns4="45cbc027-4fdb-4325-ba4c-14e20f088a7f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f19a9f2e5cef8be624ef40f2e61bc61" ns3:_="" ns4:_="">
     <xsd:import namespace="fd550b8b-0dd7-4de3-a8e6-af527f15a8ac"/>
@@ -17245,15 +17312,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4405BDA-AF76-476D-93DA-3C5B31887C9E}">
   <ds:schemaRefs>
@@ -17264,6 +17322,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1973A2B-1AFE-4B6F-B40A-8C7FBB050229}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D19D28C7-2EEA-4873-9DDD-92546421D9E7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17280,12 +17346,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1973A2B-1AFE-4B6F-B40A-8C7FBB050229}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>